--- a/scimagojr/scimagojr_1999.xlsx
+++ b/scimagojr/scimagojr_1999.xlsx
@@ -203,12 +203,12 @@
     <t>Croatia</t>
   </si>
   <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
     <t>Saudi Arabia</t>
   </si>
   <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
     <t>Thailand</t>
   </si>
   <si>
@@ -218,12 +218,12 @@
     <t>Malaysia</t>
   </si>
   <si>
+    <t>Belarus</t>
+  </si>
+  <si>
     <t>Venezuela</t>
   </si>
   <si>
-    <t>Belarus</t>
-  </si>
-  <si>
     <t>Cuba</t>
   </si>
   <si>
@@ -272,12 +272,12 @@
     <t>Algeria</t>
   </si>
   <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
     <t>Latvia</t>
   </si>
   <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
     <t>Lebanon</t>
   </si>
   <si>
@@ -485,12 +485,12 @@
     <t>Kyrgyzstan</t>
   </si>
   <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
     <t>Honduras</t>
   </si>
   <si>
-    <t>French Polynesia</t>
-  </si>
-  <si>
     <t>Guam</t>
   </si>
   <si>
@@ -521,15 +521,15 @@
     <t>Myanmar</t>
   </si>
   <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Central African Republic</t>
   </si>
   <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Martinique</t>
   </si>
   <si>
@@ -542,63 +542,63 @@
     <t>Solomon Islands</t>
   </si>
   <si>
+    <t>Burundi</t>
+  </si>
+  <si>
     <t>Guinea-Bissau</t>
   </si>
   <si>
-    <t>Burundi</t>
-  </si>
-  <si>
     <t>El Salvador</t>
   </si>
   <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
     <t>Mauritania</t>
   </si>
   <si>
-    <t>Bermuda</t>
+    <t>Angola</t>
   </si>
   <si>
     <t>Greenland</t>
   </si>
   <si>
-    <t>Angola</t>
-  </si>
-  <si>
     <t>Lesotho</t>
   </si>
   <si>
+    <t>Guinea</t>
+  </si>
+  <si>
     <t>Suriname</t>
   </si>
   <si>
-    <t>Guinea</t>
-  </si>
-  <si>
     <t>Eritrea</t>
   </si>
   <si>
     <t>Laos</t>
   </si>
   <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
     <t>Faroe Islands</t>
   </si>
   <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
     <t>Samoa</t>
   </si>
   <si>
-    <t>Sierra Leone</t>
+    <t>Reunion</t>
   </si>
   <si>
     <t>Falkland Islands (Malvinas)</t>
   </si>
   <si>
-    <t>Reunion</t>
-  </si>
-  <si>
     <t>Bahamas</t>
   </si>
   <si>
@@ -608,109 +608,109 @@
     <t>Belize</t>
   </si>
   <si>
+    <t>Virgin Islands (U.S.)</t>
+  </si>
+  <si>
     <t>Equatorial Guinea</t>
   </si>
   <si>
-    <t>Virgin Islands (U.S.)</t>
-  </si>
-  <si>
     <t>Grenada</t>
   </si>
   <si>
     <t>Turkmenistan</t>
   </si>
   <si>
+    <t>Virgin Islands (British)</t>
+  </si>
+  <si>
+    <t>Federated States of Micronesia</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
     <t>Haïti</t>
   </si>
   <si>
-    <t>Federated States of Micronesia</t>
-  </si>
-  <si>
-    <t>Saint Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>Virgin Islands (British)</t>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
   </si>
   <si>
     <t>American Samoa</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
     <t>Cayman Islands</t>
   </si>
   <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
     <t>Somalia</t>
   </si>
   <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Maldives</t>
+    <t>Bhutan</t>
   </si>
   <si>
     <t>Mayotte</t>
   </si>
   <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
     <t>Vatican City State</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
-  </si>
-  <si>
-    <t>Anguilla</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
     <t>Svalbard and Jan Mayen</t>
   </si>
   <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
     <t>South Georgia and the South Sandwich Islands</t>
-  </si>
-  <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>Christmas Island</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Cook Islands</t>
-  </si>
-  <si>
-    <t>Saint Helena</t>
-  </si>
-  <si>
-    <t>Saint Lucia</t>
-  </si>
-  <si>
-    <t>Niue</t>
-  </si>
-  <si>
-    <t>San Marino</t>
   </si>
 </sst>
 </file>
@@ -854,22 +854,22 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>357799</v>
+        <v>359722</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>342352</v>
+        <v>344504</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>17072110</v>
+        <v>18300233</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>7565628</v>
+        <v>7968503</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>47.71</v>
+        <v>50.87</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>2711</v>
+        <v>3051</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
@@ -883,22 +883,22 @@
         <v>12</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>101215</v>
+        <v>101733</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>99751</v>
+        <v>100342</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>2581172</v>
+        <v>2733842</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>658050</v>
+        <v>677981</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>25.5</v>
+        <v>26.87</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>1171</v>
+        <v>1301</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
@@ -912,22 +912,22 @@
         <v>14</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>98965</v>
+        <v>99577</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>91494</v>
+        <v>92075</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>4017191</v>
+        <v>4302676</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>841901</v>
+        <v>880400</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>40.59</v>
+        <v>43.21</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>1707</v>
+        <v>1928</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
@@ -941,22 +941,22 @@
         <v>14</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>86452</v>
+        <v>86974</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>84169</v>
+        <v>84766</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>3087623</v>
+        <v>3281352</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>695321</v>
+        <v>720826</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>35.71</v>
+        <v>37.73</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>1498</v>
+        <v>1690</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
@@ -970,22 +970,22 @@
         <v>14</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>62439</v>
+        <v>62840</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>60438</v>
+        <v>60880</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2184494</v>
+        <v>2328302</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>421944</v>
+        <v>437402</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>34.99</v>
+        <v>37.05</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>1352</v>
+        <v>1514</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
@@ -999,22 +999,22 @@
         <v>12</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>43376</v>
+        <v>43363</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>43243</v>
+        <v>43242</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>534220</v>
+        <v>570011</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>246669</v>
+        <v>261959</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>12.32</v>
+        <v>13.15</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>1112</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
@@ -1028,22 +1028,22 @@
         <v>10</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>42760</v>
+        <v>42966</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>41314</v>
+        <v>41555</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1896347</v>
+        <v>2036109</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>308434</v>
+        <v>321749</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>44.35</v>
+        <v>47.39</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>1381</v>
+        <v>1562</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -1057,22 +1057,22 @@
         <v>14</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>42297</v>
+        <v>42431</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>40821</v>
+        <v>40997</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1401946</v>
+        <v>1492318</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>286587</v>
+        <v>298664</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>33.15</v>
+        <v>35.17</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>1189</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
@@ -1086,22 +1086,22 @@
         <v>21</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>33298</v>
+        <v>33416</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>33212</v>
+        <v>33335</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>404964</v>
+        <v>431853</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>114790</v>
+        <v>120575</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>12.16</v>
+        <v>12.92</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>675</v>
+        <v>753</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
@@ -1115,22 +1115,22 @@
         <v>14</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>29857</v>
+        <v>29969</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>28672</v>
+        <v>28803</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>913287</v>
+        <v>972796</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>197922</v>
+        <v>204907</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>30.59</v>
+        <v>32.46</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>1073</v>
+        <v>1215</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
@@ -1144,22 +1144,22 @@
         <v>24</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>28911</v>
+        <v>29043</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>27541</v>
+        <v>27695</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>1098785</v>
+        <v>1182886</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>203268</v>
+        <v>212743</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>38.01</v>
+        <v>40.73</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>1193</v>
+        <v>1377</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
@@ -1173,22 +1173,22 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>24463</v>
+        <v>24473</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>23850</v>
+        <v>23877</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>435315</v>
+        <v>469824</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>145992</v>
+        <v>157153</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>17.79</v>
+        <v>19.2</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>745</v>
+        <v>858</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
@@ -1202,22 +1202,22 @@
         <v>14</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>23844</v>
+        <v>23942</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>23023</v>
+        <v>23139</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>1173888</v>
+        <v>1254085</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>153596</v>
+        <v>158579</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>49.23</v>
+        <v>52.38</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>1206</v>
+        <v>1373</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
@@ -1231,22 +1231,22 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>19134</v>
+        <v>19208</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>18691</v>
+        <v>18780</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>849979</v>
+        <v>904645</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>112457</v>
+        <v>115449</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>44.42</v>
+        <v>47.1</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>1036</v>
+        <v>1159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
@@ -1260,22 +1260,22 @@
         <v>14</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>17764</v>
+        <v>17851</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>17226</v>
+        <v>17329</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>883195</v>
+        <v>939743</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>97624</v>
+        <v>100606</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>49.72</v>
+        <v>52.64</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>1142</v>
+        <v>1291</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
@@ -1289,22 +1289,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>17076</v>
+        <v>17154</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>16937</v>
+        <v>17024</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>379392</v>
+        <v>403209</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>65610</v>
+        <v>67493</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>22.22</v>
+        <v>23.51</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>810</v>
+        <v>934</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
@@ -1318,22 +1318,22 @@
         <v>31</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>13900</v>
+        <v>13947</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>13686</v>
+        <v>13745</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>322150</v>
+        <v>345105</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>97836</v>
+        <v>102800</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>23.18</v>
+        <v>24.74</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>690</v>
+        <v>789</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
@@ -1347,22 +1347,22 @@
         <v>21</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>13841</v>
+        <v>13891</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>13723</v>
+        <v>13776</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>236901</v>
+        <v>251228</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>58495</v>
+        <v>60286</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>17.12</v>
+        <v>18.09</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>660</v>
+        <v>738</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
@@ -1376,22 +1376,22 @@
         <v>14</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>13233</v>
+        <v>13268</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>12786</v>
+        <v>12840</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>517838</v>
+        <v>554660</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>58900</v>
+        <v>60601</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>39.13</v>
+        <v>41.8</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>942</v>
+        <v>1067</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
@@ -1405,22 +1405,22 @@
         <v>12</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>12902</v>
+        <v>12959</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>12780</v>
+        <v>12843</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>294005</v>
+        <v>313292</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>51972</v>
+        <v>53084</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>22.79</v>
+        <v>24.18</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>615</v>
+        <v>688</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
@@ -1434,22 +1434,22 @@
         <v>36</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>11311</v>
+        <v>11374</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>10969</v>
+        <v>11025</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>467799</v>
+        <v>502059</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>55339</v>
+        <v>57327</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>41.36</v>
+        <v>44.14</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>821</v>
+        <v>914</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -1463,22 +1463,22 @@
         <v>14</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>9588</v>
+        <v>9667</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>9371</v>
+        <v>9452</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>459940</v>
+        <v>491720</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>55305</v>
+        <v>57201</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>47.97</v>
+        <v>50.87</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>900</v>
+        <v>1014</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
@@ -1492,22 +1492,22 @@
         <v>14</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>8957</v>
+        <v>9005</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>8818</v>
+        <v>8874</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>372213</v>
+        <v>395502</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>50038</v>
+        <v>51483</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>41.56</v>
+        <v>43.92</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>756</v>
+        <v>847</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -1521,22 +1521,22 @@
         <v>14</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>8941</v>
+        <v>8967</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>8626</v>
+        <v>8662</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>371317</v>
+        <v>405640</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>37870</v>
+        <v>39119</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>41.53</v>
+        <v>45.24</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>783</v>
+        <v>877</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
@@ -1550,22 +1550,22 @@
         <v>36</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>8000</v>
+        <v>8006</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>7623</v>
+        <v>7633</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>145642</v>
+        <v>156757</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>36839</v>
+        <v>38717</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>18.21</v>
+        <v>19.58</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>535</v>
+        <v>601</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
@@ -1579,22 +1579,22 @@
         <v>12</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>6652</v>
+        <v>6699</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>6463</v>
+        <v>6513</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>231214</v>
+        <v>251380</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>26749</v>
+        <v>27629</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>34.76</v>
+        <v>37.53</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>687</v>
+        <v>800</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
@@ -1608,22 +1608,22 @@
         <v>14</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>6512</v>
+        <v>6526</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>6383</v>
+        <v>6401</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>255923</v>
+        <v>274015</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>36209</v>
+        <v>37664</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>39.3</v>
+        <v>41.99</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>747</v>
+        <v>843</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
@@ -1637,22 +1637,22 @@
         <v>31</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>6416</v>
+        <v>6444</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>6304</v>
+        <v>6335</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>156964</v>
+        <v>168286</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>30720</v>
+        <v>32356</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>24.46</v>
+        <v>26.12</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>536</v>
+        <v>598</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
@@ -1666,22 +1666,22 @@
         <v>21</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>6365</v>
+        <v>6385</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>6294</v>
+        <v>6315</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>113402</v>
+        <v>120272</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>23924</v>
+        <v>24634</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>17.82</v>
+        <v>18.84</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>554</v>
+        <v>625</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
@@ -1695,22 +1695,22 @@
         <v>21</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>6286</v>
+        <v>6301</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>6276</v>
+        <v>6291</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>57937</v>
+        <v>61677</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>14467</v>
+        <v>15102</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>9.22</v>
+        <v>9.79</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>323</v>
+        <v>358</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
@@ -1724,22 +1724,22 @@
         <v>14</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>6108</v>
+        <v>6128</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>5956</v>
+        <v>5980</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>156303</v>
+        <v>167237</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>25001</v>
+        <v>26090</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>25.59</v>
+        <v>27.29</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>610</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
@@ -1753,22 +1753,22 @@
         <v>24</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>5881</v>
+        <v>5898</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>5692</v>
+        <v>5714</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>212418</v>
+        <v>230501</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>29474</v>
+        <v>30870</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>36.12</v>
+        <v>39.08</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>633</v>
+        <v>716</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
@@ -1782,22 +1782,22 @@
         <v>21</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>5462</v>
+        <v>5482</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>5349</v>
+        <v>5371</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>125082</v>
+        <v>133217</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>19445</v>
+        <v>20110</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>22.9</v>
+        <v>24.3</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>540</v>
+        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
@@ -1811,22 +1811,22 @@
         <v>50</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>5279</v>
+        <v>5339</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>5104</v>
+        <v>5155</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>165572</v>
+        <v>187915</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>24857</v>
+        <v>26519</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>31.36</v>
+        <v>35.2</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>567</v>
+        <v>652</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
@@ -1840,22 +1840,22 @@
         <v>31</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>5237</v>
+        <v>5245</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>5140</v>
+        <v>5153</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>123959</v>
+        <v>132393</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>26536</v>
+        <v>27896</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>23.67</v>
+        <v>25.24</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>510</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
@@ -1869,22 +1869,22 @@
         <v>12</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>5002</v>
+        <v>5017</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>4929</v>
+        <v>4946</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>125017</v>
+        <v>135340</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>12906</v>
+        <v>13271</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>24.99</v>
+        <v>26.98</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>697</v>
+        <v>806</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
@@ -1898,22 +1898,22 @@
         <v>14</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>4209</v>
+        <v>4224</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>4129</v>
+        <v>4146</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>136985</v>
+        <v>147633</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>22045</v>
+        <v>22903</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>32.55</v>
+        <v>34.95</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>599</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
@@ -1927,22 +1927,22 @@
         <v>14</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>3341</v>
+        <v>3364</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>3179</v>
+        <v>3204</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>123682</v>
+        <v>131827</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>10701</v>
+        <v>11047</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>37.02</v>
+        <v>39.19</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>628</v>
+        <v>711</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
@@ -1956,22 +1956,22 @@
         <v>56</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>3000</v>
+        <v>3007</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>2974</v>
+        <v>2982</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>52024</v>
+        <v>56200</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>10002</v>
+        <v>10660</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>17.34</v>
+        <v>18.69</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>349</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
@@ -1985,22 +1985,22 @@
         <v>21</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>2836</v>
+        <v>2852</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>2820</v>
+        <v>2837</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>34695</v>
+        <v>36835</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>6235</v>
+        <v>6456</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>12.23</v>
+        <v>12.92</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>364</v>
+        <v>419</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
@@ -2014,22 +2014,22 @@
         <v>21</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>2679</v>
+        <v>2681</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>2653</v>
+        <v>2656</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>45907</v>
+        <v>48915</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>7414</v>
+        <v>7578</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>17.14</v>
+        <v>18.25</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>331</v>
+        <v>355</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
@@ -2043,22 +2043,22 @@
         <v>21</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>2293</v>
+        <v>2300</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>2271</v>
+        <v>2279</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>35375</v>
+        <v>37755</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>5014</v>
+        <v>5228</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>15.43</v>
+        <v>16.42</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>305</v>
+        <v>347</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
@@ -2072,22 +2072,22 @@
         <v>31</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>75446</v>
+        <v>80988</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>11702</v>
+        <v>12318</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>35.04</v>
+        <v>37.63</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>451</v>
+        <v>515</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
@@ -2101,22 +2101,22 @@
         <v>21</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>1975</v>
+        <v>1979</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>1950</v>
+        <v>1954</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>25003</v>
+        <v>26589</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>5790</v>
+        <v>5993</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>12.66</v>
+        <v>13.44</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>337</v>
+        <v>380</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
@@ -2127,25 +2127,25 @@
         <v>62</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>1939</v>
+        <v>1943</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>1868</v>
+        <v>1924</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>33369</v>
+        <v>43391</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>3943</v>
+        <v>7469</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>17.21</v>
+        <v>22.33</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>478</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
@@ -2156,25 +2156,25 @@
         <v>63</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>1927</v>
+        <v>1939</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>1908</v>
+        <v>1868</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>40365</v>
+        <v>36133</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>7216</v>
+        <v>4248</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>20.95</v>
+        <v>18.63</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>361</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
@@ -2188,22 +2188,22 @@
         <v>12</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>1825</v>
+        <v>1853</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>1783</v>
+        <v>1812</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>46769</v>
+        <v>50509</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>6881</v>
+        <v>7307</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>25.63</v>
+        <v>27.26</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>396</v>
+        <v>452</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
@@ -2217,22 +2217,22 @@
         <v>36</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>1442</v>
+        <v>1445</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>1428</v>
+        <v>1431</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>31382</v>
+        <v>33353</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>11106</v>
+        <v>11530</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>21.76</v>
+        <v>23.08</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>416</v>
+        <v>490</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
@@ -2246,22 +2246,22 @@
         <v>12</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>1437</v>
+        <v>1441</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>1405</v>
+        <v>1409</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>30657</v>
+        <v>33145</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>5208</v>
+        <v>5541</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>21.33</v>
+        <v>23</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>415</v>
+        <v>504</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
@@ -2272,25 +2272,25 @@
         <v>67</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>1323</v>
+        <v>1339</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>1310</v>
+        <v>1337</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>27118</v>
+        <v>16927</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>3046</v>
+        <v>2623</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>20.5</v>
+        <v>12.64</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>254</v>
+        <v>232</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
@@ -2301,25 +2301,25 @@
         <v>68</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>1322</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>1320</v>
+        <v>1310</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>15988</v>
+        <v>29007</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>2543</v>
+        <v>3116</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>12.09</v>
+        <v>21.94</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>213</v>
+        <v>279</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
@@ -2333,22 +2333,22 @@
         <v>31</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>16592</v>
+        <v>17885</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>2904</v>
+        <v>2972</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>12.73</v>
+        <v>13.72</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
@@ -2362,22 +2362,22 @@
         <v>12</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>16241</v>
+        <v>17542</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>3593</v>
+        <v>3851</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>13.32</v>
+        <v>14.38</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>353</v>
+        <v>428</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
@@ -2391,22 +2391,22 @@
         <v>50</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>1212</v>
+        <v>1215</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>19999</v>
+        <v>21604</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>3450</v>
+        <v>3777</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>16.5</v>
+        <v>17.78</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>232</v>
+        <v>261</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
@@ -2423,19 +2423,19 @@
         <v>1206</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>19146</v>
+        <v>20975</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>4446</v>
+        <v>4785</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>15.88</v>
+        <v>17.39</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>260</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
@@ -2449,22 +2449,22 @@
         <v>21</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>10438</v>
+        <v>11099</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>1584</v>
+        <v>1641</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>11.4</v>
+        <v>12.09</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>307</v>
+        <v>350</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
@@ -2478,22 +2478,22 @@
         <v>21</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>15042</v>
+        <v>15917</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>2172</v>
+        <v>2238</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>19.09</v>
+        <v>20.02</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>265</v>
+        <v>298</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
@@ -2513,16 +2513,16 @@
         <v>758</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>18536</v>
+        <v>19888</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>2141</v>
+        <v>2260</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>24.04</v>
+        <v>25.8</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>356</v>
+        <v>405</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
@@ -2536,22 +2536,22 @@
         <v>50</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>9995</v>
+        <v>10699</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>2382</v>
+        <v>2491</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>13.1</v>
+        <v>14</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>235</v>
+        <v>271</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
@@ -2565,22 +2565,22 @@
         <v>36</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>14451</v>
+        <v>15763</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>1482</v>
+        <v>1544</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>19.8</v>
+        <v>21.56</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>195</v>
+        <v>220</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
@@ -2594,22 +2594,22 @@
         <v>21</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>20013</v>
+        <v>21378</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>3261</v>
+        <v>3380</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>29.34</v>
+        <v>31.25</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>346</v>
+        <v>383</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
@@ -2623,22 +2623,22 @@
         <v>12</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>15311</v>
+        <v>16627</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>1749</v>
+        <v>1952</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>23.41</v>
+        <v>25.38</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>284</v>
+        <v>318</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
@@ -2652,22 +2652,22 @@
         <v>50</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>24008</v>
+        <v>25689</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>3387</v>
+        <v>3519</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>37.4</v>
+        <v>40.08</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>310</v>
+        <v>346</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
@@ -2681,22 +2681,22 @@
         <v>36</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>10436</v>
+        <v>11387</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>1330</v>
+        <v>1407</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>17.08</v>
+        <v>18.58</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>219</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
@@ -2710,22 +2710,22 @@
         <v>12</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>10561</v>
+        <v>11478</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>1953</v>
+        <v>2108</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>17.93</v>
+        <v>19.42</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>252</v>
+        <v>304</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
@@ -2745,16 +2745,16 @@
         <v>510</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>19699</v>
+        <v>21629</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>1631</v>
+        <v>1744</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>38.1</v>
+        <v>41.84</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
@@ -2768,22 +2768,22 @@
         <v>50</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>6517</v>
+        <v>6928</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>1318</v>
+        <v>1388</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>13.14</v>
+        <v>13.91</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
@@ -2794,25 +2794,25 @@
         <v>85</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>7630</v>
+        <v>21558</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>1147</v>
+        <v>951</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>16.13</v>
+        <v>45.39</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>202</v>
+        <v>281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
@@ -2823,25 +2823,25 @@
         <v>86</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>20310</v>
+        <v>8111</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>930</v>
+        <v>1187</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>42.94</v>
+        <v>17.08</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>253</v>
+        <v>225</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
@@ -2861,16 +2861,16 @@
         <v>432</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>10474</v>
+        <v>11316</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>696</v>
+        <v>716</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>22.92</v>
+        <v>24.76</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>264</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
@@ -2884,22 +2884,22 @@
         <v>12</v>
       </c>
       <c r="D72" s="0" t="n">
+        <v>420</v>
+      </c>
+      <c r="E72" s="0" t="n">
         <v>418</v>
       </c>
-      <c r="E72" s="0" t="n">
-        <v>416</v>
-      </c>
       <c r="F72" s="0" t="n">
-        <v>3154</v>
+        <v>3383</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>465</v>
+        <v>508</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>7.55</v>
+        <v>8.05</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
@@ -2913,22 +2913,22 @@
         <v>36</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>6468</v>
+        <v>7018</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>554</v>
+        <v>591</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>16.17</v>
+        <v>17.5</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>268</v>
+        <v>329</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
@@ -2948,16 +2948,16 @@
         <v>381</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>16134</v>
+        <v>17171</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>1382</v>
+        <v>1448</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>40.54</v>
+        <v>43.14</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>370</v>
+        <v>393</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
@@ -2971,22 +2971,22 @@
         <v>50</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E75" s="0" t="n">
         <v>379</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>7897</v>
+        <v>8554</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>659</v>
+        <v>698</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>20.2</v>
+        <v>21.99</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
@@ -3000,22 +3000,22 @@
         <v>21</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>5803</v>
+        <v>6193</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>651</v>
+        <v>679</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>14.92</v>
+        <v>15.96</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>219</v>
+        <v>248</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
@@ -3029,22 +3029,22 @@
         <v>21</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>5614</v>
+        <v>5870</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>905</v>
+        <v>930</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>14.66</v>
+        <v>15.25</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
@@ -3058,22 +3058,22 @@
         <v>12</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>366</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>9975</v>
+        <v>10767</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>1097</v>
+        <v>1182</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>26.74</v>
+        <v>28.94</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>269</v>
+        <v>316</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
@@ -3087,22 +3087,22 @@
         <v>31</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>335</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>13656</v>
+        <v>14449</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>1480</v>
+        <v>1548</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>39.93</v>
+        <v>42.5</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
@@ -3122,16 +3122,16 @@
         <v>282</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>8088</v>
+        <v>8700</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>1591</v>
+        <v>1760</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>28.28</v>
+        <v>30.42</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>193</v>
+        <v>226</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
@@ -3151,16 +3151,16 @@
         <v>272</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>6486</v>
+        <v>7041</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>685</v>
+        <v>711</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>23.42</v>
+        <v>25.42</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>225</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
@@ -3174,22 +3174,22 @@
         <v>31</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>8944</v>
+        <v>9569</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>930</v>
+        <v>994</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>33</v>
+        <v>35.18</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>288</v>
+        <v>315</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
@@ -3209,16 +3209,16 @@
         <v>260</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>4628</v>
+        <v>4918</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>577</v>
+        <v>597</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>17.14</v>
+        <v>18.21</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
@@ -3232,22 +3232,22 @@
         <v>50</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>6670</v>
+        <v>7090</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>1058</v>
+        <v>1110</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>26.05</v>
+        <v>27.48</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>205</v>
+        <v>228</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
@@ -3261,22 +3261,22 @@
         <v>36</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>4085</v>
+        <v>4440</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>17.09</v>
+        <v>18.35</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>176</v>
+        <v>217</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
@@ -3296,16 +3296,16 @@
         <v>230</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>5601</v>
+        <v>6062</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>767</v>
+        <v>838</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>23.73</v>
+        <v>25.69</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>191</v>
+        <v>222</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
@@ -3325,16 +3325,16 @@
         <v>224</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>7798</v>
+        <v>8452</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>819</v>
+        <v>871</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>33.61</v>
+        <v>36.43</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
@@ -3348,22 +3348,22 @@
         <v>14</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>6697</v>
+        <v>7226</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>603</v>
+        <v>636</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>29.37</v>
+        <v>31.55</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>254</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
@@ -3377,22 +3377,22 @@
         <v>21</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>2841</v>
+        <v>2977</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>13.09</v>
+        <v>13.66</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
@@ -3412,16 +3412,16 @@
         <v>214</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>3899</v>
+        <v>4235</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>18.13</v>
+        <v>19.7</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
@@ -3435,22 +3435,22 @@
         <v>50</v>
       </c>
       <c r="D91" s="0" t="n">
+        <v>209</v>
+      </c>
+      <c r="E91" s="0" t="n">
         <v>207</v>
       </c>
-      <c r="E91" s="0" t="n">
-        <v>205</v>
-      </c>
       <c r="F91" s="0" t="n">
-        <v>5192</v>
+        <v>5501</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>873</v>
+        <v>920</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>25.08</v>
+        <v>26.32</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
@@ -3470,16 +3470,16 @@
         <v>195</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>8792</v>
+        <v>9233</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>1225</v>
+        <v>1273</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>43.1</v>
+        <v>45.26</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>209</v>
+        <v>236</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
@@ -3499,16 +3499,16 @@
         <v>200</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>1324</v>
+        <v>1421</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>6.59</v>
+        <v>7.07</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
@@ -3528,16 +3528,16 @@
         <v>187</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>5759</v>
+        <v>6101</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>519</v>
+        <v>547</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>29.99</v>
+        <v>31.78</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
@@ -3551,22 +3551,22 @@
         <v>31</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>9543</v>
+        <v>11134</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>54.22</v>
+        <v>62.9</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
@@ -3580,22 +3580,22 @@
         <v>12</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>5440</v>
+        <v>5988</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>776</v>
+        <v>868</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>32</v>
+        <v>34.81</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>175</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
@@ -3609,22 +3609,22 @@
         <v>50</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E97" s="0" t="n">
         <v>156</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>3580</v>
+        <v>3903</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>22.95</v>
+        <v>24.86</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="98">
@@ -3638,22 +3638,22 @@
         <v>21</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>1656</v>
+        <v>1784</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>11.42</v>
+        <v>12.22</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="99">
@@ -3673,16 +3673,16 @@
         <v>134</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>4013</v>
+        <v>4282</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>511</v>
+        <v>564</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>29.08</v>
+        <v>31.03</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>197</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="100">
@@ -3702,16 +3702,16 @@
         <v>132</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>3346</v>
+        <v>3583</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>25.16</v>
+        <v>26.94</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
@@ -3725,22 +3725,22 @@
         <v>31</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>5663</v>
+        <v>6153</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>45.3</v>
+        <v>48.45</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
@@ -3754,22 +3754,22 @@
         <v>36</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>2045</v>
+        <v>2256</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>16.9</v>
+        <v>18.34</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="103">
@@ -3789,16 +3789,16 @@
         <v>109</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>5113</v>
+        <v>5399</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>42.61</v>
+        <v>44.99</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
@@ -3818,16 +3818,16 @@
         <v>115</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>7974</v>
+        <v>8557</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>758</v>
+        <v>788</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>67.01</v>
+        <v>71.91</v>
       </c>
       <c r="I104" s="0" t="n">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
@@ -3841,22 +3841,22 @@
         <v>24</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>2837</v>
+        <v>3036</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>24.04</v>
+        <v>26.17</v>
       </c>
       <c r="I105" s="0" t="n">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="106">
@@ -3870,22 +3870,22 @@
         <v>50</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>3187</v>
+        <v>3361</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>27.96</v>
+        <v>29.23</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="107">
@@ -3905,16 +3905,16 @@
         <v>109</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>2149</v>
+        <v>2293</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>19.02</v>
+        <v>20.29</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="108">
@@ -3934,16 +3934,16 @@
         <v>108</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>3056</v>
+        <v>3299</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>28.04</v>
+        <v>30.27</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>119</v>
+        <v>140</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="109">
@@ -3963,16 +3963,16 @@
         <v>100</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>2450</v>
+        <v>2609</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>389</v>
+        <v>421</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>23.33</v>
+        <v>24.85</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="110">
@@ -3992,16 +3992,16 @@
         <v>102</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>4.34</v>
+        <v>4.63</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="111">
@@ -4015,22 +4015,22 @@
         <v>50</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>2103</v>
+        <v>2226</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>21.24</v>
+        <v>22.04</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="112">
@@ -4044,22 +4044,22 @@
         <v>14</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>2457</v>
+        <v>2610</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>26.42</v>
+        <v>27.77</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>243</v>
+        <v>274</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="113">
@@ -4073,22 +4073,22 @@
         <v>14</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>1981</v>
+        <v>2113</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>24.76</v>
+        <v>26.09</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="114">
@@ -4102,22 +4102,22 @@
         <v>50</v>
       </c>
       <c r="D114" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="E114" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="E114" s="0" t="n">
-        <v>78</v>
-      </c>
       <c r="F114" s="0" t="n">
-        <v>1661</v>
+        <v>1765</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>21.03</v>
+        <v>22.06</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="115">
@@ -4137,16 +4137,16 @@
         <v>75</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>1084</v>
+        <v>1221</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>13.9</v>
+        <v>15.65</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>155</v>
+        <v>199</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
@@ -4166,16 +4166,16 @@
         <v>73</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>4550</v>
+        <v>4756</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>59.87</v>
+        <v>62.58</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
@@ -4195,16 +4195,16 @@
         <v>65</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>1567</v>
+        <v>1731</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>23.04</v>
+        <v>25.46</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>238</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
@@ -4224,16 +4224,16 @@
         <v>63</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>2928</v>
+        <v>3139</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>43.7</v>
+        <v>46.85</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
@@ -4253,16 +4253,16 @@
         <v>66</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>2302</v>
+        <v>2455</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>34.36</v>
+        <v>36.64</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120">
@@ -4276,22 +4276,22 @@
         <v>50</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E120" s="0" t="n">
         <v>66</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>1677</v>
+        <v>1806</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>25.03</v>
+        <v>27.36</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>104</v>
+        <v>133</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121">
@@ -4311,16 +4311,16 @@
         <v>65</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>1058</v>
+        <v>1168</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>16.28</v>
+        <v>17.97</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122">
@@ -4340,16 +4340,16 @@
         <v>57</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>556</v>
+        <v>598</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>9.27</v>
+        <v>9.97</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
@@ -4369,16 +4369,16 @@
         <v>59</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>835</v>
+        <v>908</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>14.15</v>
+        <v>15.39</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
@@ -4392,22 +4392,22 @@
         <v>12</v>
       </c>
       <c r="D124" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="E124" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="E124" s="0" t="n">
-        <v>55</v>
-      </c>
       <c r="F124" s="0" t="n">
-        <v>1293</v>
+        <v>1413</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>23.09</v>
+        <v>24.79</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>105</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="125">
@@ -4427,16 +4427,16 @@
         <v>54</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>1532</v>
+        <v>1652</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>27.36</v>
+        <v>29.5</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
@@ -4450,22 +4450,22 @@
         <v>12</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>5</v>
+        <v>5.45</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="127">
@@ -4485,16 +4485,16 @@
         <v>53</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>1168</v>
+        <v>1266</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>22.04</v>
+        <v>23.89</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="128">
@@ -4514,16 +4514,16 @@
         <v>51</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>671</v>
+        <v>703</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>12.9</v>
+        <v>13.52</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="129">
@@ -4543,16 +4543,16 @@
         <v>51</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>1594</v>
+        <v>1729</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>31.25</v>
+        <v>33.9</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="130">
@@ -4572,16 +4572,16 @@
         <v>50</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>1031</v>
+        <v>1117</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>20.22</v>
+        <v>21.9</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="131">
@@ -4601,16 +4601,16 @@
         <v>50</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>1182</v>
+        <v>1290</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>23.64</v>
+        <v>25.8</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="132">
@@ -4630,16 +4630,16 @@
         <v>48</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>1750</v>
+        <v>1854</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>35.71</v>
+        <v>37.84</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="133">
@@ -4659,16 +4659,16 @@
         <v>44</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>893</v>
+        <v>945</v>
       </c>
       <c r="G133" s="0" t="n">
         <v>43</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>18.6</v>
+        <v>19.69</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="134">
@@ -4688,16 +4688,16 @@
         <v>47</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>1016</v>
+        <v>1088</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>21.62</v>
+        <v>23.15</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="135">
@@ -4717,16 +4717,16 @@
         <v>47</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>639</v>
+        <v>700</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>13.6</v>
+        <v>14.89</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="136">
@@ -4746,16 +4746,16 @@
         <v>44</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>1372</v>
+        <v>1514</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>30.49</v>
+        <v>33.64</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="137">
@@ -4775,16 +4775,16 @@
         <v>42</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>1212</v>
+        <v>1321</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>26.93</v>
+        <v>29.36</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="138">
@@ -4804,16 +4804,16 @@
         <v>42</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>1180</v>
+        <v>1279</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>26.82</v>
+        <v>29.07</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="139">
@@ -4833,16 +4833,16 @@
         <v>40</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>455</v>
+        <v>498</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>11.38</v>
+        <v>12.45</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="140">
@@ -4853,25 +4853,25 @@
         <v>156</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>39</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>1070</v>
+        <v>1682</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>68</v>
+        <v>206</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>27.44</v>
+        <v>43.13</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>76</v>
+        <v>111</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="141">
@@ -4882,25 +4882,25 @@
         <v>157</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>39</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>1520</v>
+        <v>1173</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>190</v>
+        <v>69</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>38.97</v>
+        <v>30.08</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="142">
@@ -4920,16 +4920,16 @@
         <v>38</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>1070</v>
+        <v>1146</v>
       </c>
       <c r="G142" s="0" t="n">
         <v>43</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>28.16</v>
+        <v>30.16</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="143">
@@ -4943,22 +4943,22 @@
         <v>12</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="G143" s="0" t="n">
         <v>18</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>8.58</v>
+        <v>8.88</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>178</v>
+        <v>224</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="144">
@@ -4978,16 +4978,16 @@
         <v>29</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>976</v>
+        <v>1048</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>30.5</v>
+        <v>32.75</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="145">
@@ -5007,16 +5007,16 @@
         <v>27</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>657</v>
+        <v>701</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>21.19</v>
+        <v>22.61</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="146">
@@ -5036,16 +5036,16 @@
         <v>29</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>3043</v>
+        <v>3347</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>101.43</v>
+        <v>111.57</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="147">
@@ -5065,16 +5065,16 @@
         <v>28</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>845</v>
+        <v>917</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>29.14</v>
+        <v>31.62</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="148">
@@ -5094,16 +5094,16 @@
         <v>29</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>9.17</v>
+        <v>9.72</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="149">
@@ -5123,16 +5123,16 @@
         <v>27</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>881</v>
+        <v>927</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>31.46</v>
+        <v>33.11</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="150">
@@ -5152,16 +5152,16 @@
         <v>26</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>972</v>
+        <v>1028</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>36</v>
+        <v>38.07</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
@@ -5181,16 +5181,16 @@
         <v>24</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>599</v>
+        <v>638</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>24.96</v>
+        <v>26.58</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="152">
@@ -5201,7 +5201,7 @@
         <v>168</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>23</v>
@@ -5210,16 +5210,16 @@
         <v>23</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>416</v>
+        <v>763</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>18.09</v>
+        <v>33.17</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="153">
@@ -5230,25 +5230,25 @@
         <v>169</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>23</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>713</v>
+        <v>187</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>31</v>
+        <v>8.13</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>56</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="154">
@@ -5265,19 +5265,19 @@
         <v>23</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>174</v>
+        <v>438</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>7.57</v>
+        <v>19.04</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="155">
@@ -5297,16 +5297,16 @@
         <v>19</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="G155" s="0" t="n">
         <v>11</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>8.95</v>
+        <v>9.33</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="156">
@@ -5326,16 +5326,16 @@
         <v>21</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>862</v>
+        <v>934</v>
       </c>
       <c r="G156" s="0" t="n">
         <v>21</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>41.05</v>
+        <v>44.48</v>
       </c>
       <c r="I156" s="0" t="n">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="157">
@@ -5355,16 +5355,16 @@
         <v>18</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>795</v>
+        <v>870</v>
       </c>
       <c r="G157" s="0" t="n">
         <v>13</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>44.17</v>
+        <v>48.33</v>
       </c>
       <c r="I157" s="0" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="158">
@@ -5384,16 +5384,16 @@
         <v>18</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>649</v>
+        <v>750</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>36.06</v>
+        <v>41.67</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="159">
@@ -5413,16 +5413,16 @@
         <v>17</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>800</v>
+        <v>505</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>47.06</v>
+        <v>29.71</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="160">
@@ -5442,16 +5442,16 @@
         <v>17</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>467</v>
+        <v>844</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>27.47</v>
+        <v>49.65</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="161">
@@ -5471,16 +5471,16 @@
         <v>16</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>409</v>
+        <v>441</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>25.56</v>
+        <v>27.56</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="162">
@@ -5491,25 +5491,25 @@
         <v>178</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>399</v>
+        <v>761</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>24.94</v>
+        <v>47.56</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>50</v>
+        <v>113</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="163">
@@ -5520,25 +5520,25 @@
         <v>179</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>706</v>
+        <v>433</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>44.13</v>
+        <v>27.06</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>105</v>
+        <v>58</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="164">
@@ -5549,7 +5549,7 @@
         <v>180</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>14</v>
@@ -5558,16 +5558,16 @@
         <v>14</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>569</v>
+        <v>442</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>40.64</v>
+        <v>31.57</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>87</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="165">
@@ -5578,7 +5578,7 @@
         <v>181</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>14</v>
@@ -5587,16 +5587,16 @@
         <v>14</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>402</v>
+        <v>613</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>28.71</v>
+        <v>43.79</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>56</v>
+        <v>100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="166">
@@ -5616,16 +5616,16 @@
         <v>14</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="G166" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>10.64</v>
+        <v>11</v>
       </c>
       <c r="I166" s="0" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="167">
@@ -5636,7 +5636,7 @@
         <v>183</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>12</v>
@@ -5645,16 +5645,16 @@
         <v>11</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>305</v>
+        <v>217</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>25.42</v>
+        <v>18.08</v>
       </c>
       <c r="I167" s="0" t="n">
-        <v>49</v>
+        <v>88</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="168">
@@ -5665,7 +5665,7 @@
         <v>184</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>12</v>
@@ -5674,16 +5674,16 @@
         <v>11</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>207</v>
+        <v>330</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>17.25</v>
+        <v>27.5</v>
       </c>
       <c r="I168" s="0" t="n">
-        <v>78</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="169">
@@ -5703,16 +5703,16 @@
         <v>12</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="G169" s="0" t="n">
         <v>8</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>28.75</v>
+        <v>31.17</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="170">
@@ -5732,16 +5732,16 @@
         <v>11</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>19.27</v>
+        <v>22</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="171">
@@ -5752,7 +5752,7 @@
         <v>187</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>11</v>
@@ -5761,16 +5761,16 @@
         <v>11</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>817</v>
+        <v>404</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>74.27</v>
+        <v>36.73</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="172">
@@ -5781,7 +5781,7 @@
         <v>188</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>11</v>
@@ -5790,16 +5790,16 @@
         <v>11</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>379</v>
+        <v>866</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>34.45</v>
+        <v>78.73</v>
       </c>
       <c r="I172" s="0" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="173">
@@ -5819,16 +5819,16 @@
         <v>10</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="G173" s="0" t="n">
         <v>8</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>38.09</v>
+        <v>40.64</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="174">
@@ -5839,7 +5839,7 @@
         <v>190</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>10</v>
@@ -5848,16 +5848,16 @@
         <v>10</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>141</v>
+        <v>185</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>14.1</v>
+        <v>18.5</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>42</v>
+        <v>90</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="175">
@@ -5868,7 +5868,7 @@
         <v>191</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>10</v>
@@ -5877,16 +5877,16 @@
         <v>10</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>17.4</v>
+        <v>15.2</v>
       </c>
       <c r="I175" s="0" t="n">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="176">
@@ -5897,7 +5897,7 @@
         <v>192</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>9</v>
@@ -5906,16 +5906,16 @@
         <v>9</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>253</v>
+        <v>170</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>28.11</v>
+        <v>18.89</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>48</v>
+        <v>67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="177">
@@ -5926,7 +5926,7 @@
         <v>193</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>9</v>
@@ -5935,16 +5935,16 @@
         <v>9</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>160</v>
+        <v>273</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>17.78</v>
+        <v>30.33</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="178">
@@ -5964,16 +5964,16 @@
         <v>6</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>439</v>
+        <v>475</v>
       </c>
       <c r="G178" s="0" t="n">
         <v>8</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>54.88</v>
+        <v>59.38</v>
       </c>
       <c r="I178" s="0" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="179">
@@ -5993,16 +5993,16 @@
         <v>7</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="G179" s="0" t="n">
         <v>3</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>19</v>
+        <v>20.86</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="180">
@@ -6022,16 +6022,16 @@
         <v>6</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>34.43</v>
+        <v>35.86</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="181">
@@ -6042,7 +6042,7 @@
         <v>197</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>6</v>
@@ -6051,16 +6051,16 @@
         <v>6</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>287</v>
+        <v>206</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>47.83</v>
+        <v>34.33</v>
       </c>
       <c r="I181" s="0" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="182">
@@ -6071,7 +6071,7 @@
         <v>198</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>6</v>
@@ -6080,16 +6080,16 @@
         <v>6</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>189</v>
+        <v>300</v>
       </c>
       <c r="G182" s="0" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H182" s="0" t="n">
-        <v>31.5</v>
+        <v>50</v>
       </c>
       <c r="I182" s="0" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="183">
@@ -6109,16 +6109,16 @@
         <v>6</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="G183" s="0" t="n">
         <v>3</v>
       </c>
       <c r="H183" s="0" t="n">
-        <v>50.83</v>
+        <v>54.83</v>
       </c>
       <c r="I183" s="0" t="n">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="184">
@@ -6132,22 +6132,22 @@
         <v>12</v>
       </c>
       <c r="D184" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E184" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G184" s="0" t="n">
         <v>3</v>
       </c>
       <c r="H184" s="0" t="n">
-        <v>8.6</v>
+        <v>7.67</v>
       </c>
       <c r="I184" s="0" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="185">
@@ -6164,19 +6164,19 @@
         <v>5</v>
       </c>
       <c r="E185" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>407</v>
+        <v>198</v>
       </c>
       <c r="G185" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H185" s="0" t="n">
-        <v>81.4</v>
+        <v>39.6</v>
       </c>
       <c r="I185" s="0" t="n">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="186">
@@ -6196,16 +6196,16 @@
         <v>5</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G186" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H186" s="0" t="n">
-        <v>15.8</v>
+        <v>17.2</v>
       </c>
       <c r="I186" s="0" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="187">
@@ -6225,16 +6225,16 @@
         <v>4</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G187" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H187" s="0" t="n">
-        <v>25.2</v>
+        <v>27.8</v>
       </c>
       <c r="I187" s="0" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="188">
@@ -6251,19 +6251,19 @@
         <v>5</v>
       </c>
       <c r="E188" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>191</v>
+        <v>426</v>
       </c>
       <c r="G188" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H188" s="0" t="n">
-        <v>38.2</v>
+        <v>85.2</v>
       </c>
       <c r="I188" s="0" t="n">
-        <v>33</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="189">
@@ -6274,7 +6274,7 @@
         <v>205</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>4</v>
@@ -6283,16 +6283,16 @@
         <v>4</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="G189" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H189" s="0" t="n">
-        <v>19.25</v>
+        <v>33.75</v>
       </c>
       <c r="I189" s="0" t="n">
-        <v>31</v>
+        <v>81</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="190">
@@ -6312,16 +6312,16 @@
         <v>4</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G190" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H190" s="0" t="n">
-        <v>16</v>
+        <v>16.75</v>
       </c>
       <c r="I190" s="0" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="191">
@@ -6332,7 +6332,7 @@
         <v>207</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>4</v>
@@ -6341,16 +6341,16 @@
         <v>4</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="G191" s="0" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H191" s="0" t="n">
-        <v>31.5</v>
+        <v>20.5</v>
       </c>
       <c r="I191" s="0" t="n">
-        <v>74</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="192">
@@ -6370,16 +6370,16 @@
         <v>3</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G192" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H192" s="0" t="n">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="I192" s="0" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="193">
@@ -6399,16 +6399,16 @@
         <v>3</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H193" s="0" t="n">
-        <v>7.33</v>
+        <v>27.33</v>
       </c>
       <c r="I193" s="0" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="194">
@@ -6428,16 +6428,16 @@
         <v>3</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G194" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H194" s="0" t="n">
-        <v>48.33</v>
+        <v>49.67</v>
       </c>
       <c r="I194" s="0" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="195">
@@ -6448,7 +6448,7 @@
         <v>211</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>3</v>
@@ -6457,16 +6457,16 @@
         <v>3</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="G195" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H195" s="0" t="n">
-        <v>26.33</v>
+        <v>7</v>
       </c>
       <c r="I195" s="0" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="196">
@@ -6486,16 +6486,16 @@
         <v>3</v>
       </c>
       <c r="F196" s="0" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G196" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H196" s="0" t="n">
-        <v>13.33</v>
+        <v>15</v>
       </c>
       <c r="I196" s="0" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="197">
@@ -6515,16 +6515,16 @@
         <v>3</v>
       </c>
       <c r="F197" s="0" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G197" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H197" s="0" t="n">
-        <v>8</v>
+        <v>8.67</v>
       </c>
       <c r="I197" s="0" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="198">
@@ -6535,7 +6535,7 @@
         <v>214</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>3</v>
@@ -6544,16 +6544,16 @@
         <v>3</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G198" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H198" s="0" t="n">
-        <v>6</v>
+        <v>7.33</v>
       </c>
       <c r="I198" s="0" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="199">
@@ -6564,7 +6564,7 @@
         <v>215</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>2</v>
@@ -6573,16 +6573,16 @@
         <v>2</v>
       </c>
       <c r="F199" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="G199" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="G199" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="H199" s="0" t="n">
-        <v>7</v>
+        <v>26.5</v>
       </c>
       <c r="I199" s="0" t="n">
-        <v>14</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="200">
@@ -6593,25 +6593,25 @@
         <v>216</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D200" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E200" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F200" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G200" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F200" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G200" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="H200" s="0" t="n">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="I200" s="0" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="201">
@@ -6640,7 +6640,7 @@
         <v>21</v>
       </c>
       <c r="I201" s="0" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="202">
@@ -6660,16 +6660,16 @@
         <v>1</v>
       </c>
       <c r="F202" s="0" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G202" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H202" s="0" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I202" s="0" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="203">
@@ -6689,16 +6689,16 @@
         <v>1</v>
       </c>
       <c r="F203" s="0" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G203" s="0" t="n">
         <v>3</v>
       </c>
       <c r="H203" s="0" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="I203" s="0" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="204">
@@ -6709,25 +6709,25 @@
         <v>220</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E204" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F204" s="0" t="n">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="G204" s="0" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H204" s="0" t="n">
-        <v>23.5</v>
+        <v>2.5</v>
       </c>
       <c r="I204" s="0" t="n">
-        <v>61</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="205">
@@ -6756,7 +6756,7 @@
         <v>24</v>
       </c>
       <c r="I205" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="206">
@@ -6767,7 +6767,7 @@
         <v>222</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>1</v>
@@ -6776,16 +6776,16 @@
         <v>1</v>
       </c>
       <c r="F206" s="0" t="n">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="G206" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H206" s="0" t="n">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="I206" s="0" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="207">
@@ -6796,7 +6796,7 @@
         <v>223</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D207" s="0" t="n">
         <v>1</v>
@@ -6805,16 +6805,16 @@
         <v>1</v>
       </c>
       <c r="F207" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G207" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H207" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I207" s="0" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="208">
@@ -6834,16 +6834,16 @@
         <v>1</v>
       </c>
       <c r="F208" s="0" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G208" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H208" s="0" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I208" s="0" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="209">
@@ -6863,16 +6863,16 @@
         <v>1</v>
       </c>
       <c r="F209" s="0" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G209" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H209" s="0" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I209" s="0" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="210">
@@ -6883,7 +6883,7 @@
         <v>226</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>1</v>
@@ -6892,16 +6892,16 @@
         <v>1</v>
       </c>
       <c r="F210" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G210" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H210" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I210" s="0" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="211">
@@ -6912,7 +6912,7 @@
         <v>227</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D211" s="0" t="n">
         <v>1</v>
@@ -6921,16 +6921,16 @@
         <v>1</v>
       </c>
       <c r="F211" s="0" t="n">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G211" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H211" s="0" t="n">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="I211" s="0" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="212">
@@ -6959,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="I212" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="213">
@@ -6970,7 +6970,7 @@
         <v>229</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>1</v>
@@ -6979,16 +6979,16 @@
         <v>1</v>
       </c>
       <c r="F213" s="0" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G213" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H213" s="0" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I213" s="0" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="214">
@@ -6999,7 +6999,7 @@
         <v>230</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D214" s="0" t="n">
         <v>1</v>
@@ -7008,16 +7008,16 @@
         <v>1</v>
       </c>
       <c r="F214" s="0" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G214" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H214" s="0" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I214" s="0" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="215">
@@ -7028,7 +7028,7 @@
         <v>231</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D215" s="0" t="n">
         <v>1</v>
@@ -7037,16 +7037,16 @@
         <v>1</v>
       </c>
       <c r="F215" s="0" t="n">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="G215" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H215" s="0" t="n">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="I215" s="0" t="n">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
